--- a/data/bible_app.xlsx
+++ b/data/bible_app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nviernes/Downloads/Flask/bible_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B879EE5-690F-914B-8DF2-39418723CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7199F69-6D0F-7449-9CE5-202014BA2CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>Isaiah 41:10</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Life can feel uncertain, but this verse reminds us that God has a divine plan for us. Even when things don’t go as expected, we can trust that He is working behind the scenes for our good.</t>
+  </si>
+  <si>
+    <t>This verse is a powerful reminder that our strength comes from God. No matter the challenges we face, we are not alone—Christ empowers us to overcome difficulties and achieve our purpose.</t>
+  </si>
+  <si>
+    <t>Sometimes, we try to figure everything out on our own, but God calls us to trust Him completely. When we surrender our plans and seek His guidance, He leads us on the right path.</t>
+  </si>
+  <si>
+    <t>Fear and anxiety can feel overwhelming, but God reassures us that He is always by our side. His presence gives us the strength to face any trial with confidence and faith.</t>
+  </si>
+  <si>
+    <t>Romans 8:28</t>
+  </si>
+  <si>
+    <t>And we know that in all things God works for the good of those who love Him, who have been called according to His purpose.</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/927414/pexels-photo-927414.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1200</t>
+  </si>
+  <si>
+    <t>Even in difficult times, God is working everything out for our good. While we may not always see it immediately, we can trust that His purpose for our lives will be fulfilled in His perfect timing.</t>
   </si>
 </sst>
 </file>
@@ -134,13 +161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,9 +518,10 @@
     <col min="2" max="2" width="44.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +534,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,8 +551,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -531,8 +568,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,8 +585,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -558,6 +601,26 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/bible_app.xlsx
+++ b/data/bible_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nviernes/Downloads/Flask/bible_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7199F69-6D0F-7449-9CE5-202014BA2CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D46A9E5-BBFD-7945-9DEC-C080DDCB286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Even in difficult times, God is working everything out for our good. While we may not always see it immediately, we can trust that His purpose for our lives will be fulfilled in His perfect timing.</t>
+  </si>
+  <si>
+    <t>Psalm 46:10</t>
+  </si>
+  <si>
+    <t>Be still, and know that I am God; I will be exalted among the nations, I will be exalted in the earth.</t>
+  </si>
+  <si>
+    <t>In the chaos of life, God calls us to pause and trust Him. Instead of worrying or trying to control everything, we can rest in His power and sovereignty.</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,6 +632,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/bible_app.xlsx
+++ b/data/bible_app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nviernes/Downloads/Flask/bible_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D46A9E5-BBFD-7945-9DEC-C080DDCB286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC658E3C-FC0D-884C-AFC4-AEB6E194C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Be still, and know that I am God; I will be exalted among the nations, I will be exalted in the earth.</t>
   </si>
   <si>
-    <t>In the chaos of life, God calls us to pause and trust Him. Instead of worrying or trying to control everything, we can rest in His power and sovereignty.</t>
+    <t>Minsan sa buhay, we get so caught up in worries and struggles na nakakalimutan nating magpahinga sa presence ni Lord. We should learn how to pause, let go, and trust Him. Hindi natin kailangang laging kontrolin ang lahat—God is already working in ways we cannot see. Kapag natututo tayong magtiwala, mas nararamdaman natin ang peace na nanggagaling sa Kanya. So take a deep breath, be still, and remember: God is in control.</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>

--- a/data/bible_app.xlsx
+++ b/data/bible_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nviernes/Downloads/Flask/bible_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC658E3C-FC0D-884C-AFC4-AEB6E194C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE955F-B8F2-E141-BFAF-7B89C626D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Minsan sa buhay, we get so caught up in worries and struggles na nakakalimutan nating magpahinga sa presence ni Lord. We should learn how to pause, let go, and trust Him. Hindi natin kailangang laging kontrolin ang lahat—God is already working in ways we cannot see. Kapag natututo tayong magtiwala, mas nararamdaman natin ang peace na nanggagaling sa Kanya. So take a deep breath, be still, and remember: God is in control.</t>
+  </si>
+  <si>
+    <t>These things I have spoken unto you, that in me ye might have peace. In the world ye shall have tribulation: but be of good cheer; I have overcome the world.</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1102908/pexels-photo-1102908.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1200</t>
+  </si>
+  <si>
+    <t>John 16:33</t>
+  </si>
+  <si>
+    <t>Life will never be perfect—may mga struggles, pain, at moments na parang ang bigat-bigat na. And that,  we don’t have to be afraid. Yes, problems will come, pero hindi tayo talo. He has already won the victory. Kaya kahit mahirap, we can have peace, knowing that He is in control. Hold on to Him, trust His plans, and remember—hindi ka nag-iisa</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,6 +661,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/bible_app.xlsx
+++ b/data/bible_app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nviernes/Downloads/Flask/bible_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE955F-B8F2-E141-BFAF-7B89C626D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8E1F15-5657-594A-B05B-E7C893359B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Life will never be perfect—may mga struggles, pain, at moments na parang ang bigat-bigat na. And that,  we don’t have to be afraid. Yes, problems will come, pero hindi tayo talo. He has already won the victory. Kaya kahit mahirap, we can have peace, knowing that He is in control. Hold on to Him, trust His plans, and remember—hindi ka nag-iisa</t>
+  </si>
+  <si>
+    <t>Minsan, life gets overwhelming—too many worries, too many things we can’t control. Pero God’s peace is different. It’s not based on circumstances; it’s deeper, unshakable. Kahit hindi mo maintindihan kung paano, His peace will calm your heart and mind. You just have to surrender everything to Him. Stop overthinking, stop carrying everything on your own—let His peace take over.</t>
+  </si>
+  <si>
+    <t>Philippians 4:7</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1108572/pexels-photo-1108572.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1200</t>
+  </si>
+  <si>
+    <t>And the peace of God, which transcends all understanding, will guard your hearts and your minds in Christ Jesus.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,6 +690,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
